--- a/structure_checker/_segmentation_String_Quartets_all.xlsx
+++ b/structure_checker/_segmentation_String_Quartets_all.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Vysoké učení technické v Brně\_KInG\_king_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_TACR\repo\Classification-of-interpretation-differences\structure_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A307A-2E32-46BA-BD41-62B6AB65AC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="2445" windowWidth="14400" windowHeight="7365"/>
+    <workbookView xWindow="4875" yWindow="1965" windowWidth="20895" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motifs" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -74,13 +66,13 @@
     <t>Smetana</t>
   </si>
   <si>
-    <t>tohle je total random</t>
+    <t>too "not unified"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,16 +238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,30 +268,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,9 +289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,2394 +586,2336 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27" t="s">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27" t="s">
+      <c r="S4" s="20"/>
+      <c r="T4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27" t="s">
+      <c r="U4" s="20"/>
+      <c r="V4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27" t="s">
+      <c r="W4" s="20"/>
+      <c r="X4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="27"/>
+      <c r="Y4" s="20"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>16</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>24</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>25</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>22</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>32</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <v>1</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="5">
         <v>46</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>31</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>1</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="4">
         <v>16</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="4">
         <v>1</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="5">
         <v>27</v>
       </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>17</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="1">
         <v>25</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="1">
         <v>11</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="1">
         <v>18</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="1">
         <v>17</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="1">
         <v>28</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="1">
         <v>25</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>46</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>26</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="1">
         <v>47</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>23</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>43</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>33</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <v>78</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="1">
         <v>47</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="7">
         <v>113</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>32</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="1">
         <v>46</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="14">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
         <v>17</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="1">
         <v>28</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="1">
         <v>27</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>26</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="1">
         <v>35</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="1">
         <v>19</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="1">
         <v>30</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="1">
         <v>29</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="1">
         <v>47</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>64</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>48</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="1">
         <v>80</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>44</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>57</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>79</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
         <v>126</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="1">
         <v>114</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>145</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <v>47</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="1">
         <v>63</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="14">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
         <v>29</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="1">
         <v>43</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="1">
         <v>57</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="7">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>36</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="1">
         <v>43</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="1">
         <v>42</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="1">
         <v>41</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="1">
         <v>48</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="1">
         <v>65</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>98</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>81</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="1">
         <v>107</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>58</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>79</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>127</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>166</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <v>146</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <v>199</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>64</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <v>79</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="14">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
         <v>44</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="1">
         <v>62</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="1">
         <v>90</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="7">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>44</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="1">
         <v>53</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="1">
         <v>43</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="1">
         <v>50</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="1">
         <v>49</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="1">
         <v>72</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="1">
         <v>99</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>110</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>108</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="1">
         <v>122</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>80</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>103</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="1">
         <v>167</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="1">
         <v>196</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="1">
         <v>200</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="7">
         <v>245</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>80</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="1">
         <v>94</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="14">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
         <v>63</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="1">
         <v>76</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="1">
         <v>142</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="7">
         <v>181</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>54</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="1">
         <v>124</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="1">
         <v>51</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="1">
         <v>61</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="1">
         <v>73</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="1">
         <v>96</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="1">
         <v>111</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>122</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>123</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="1">
         <v>162</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>104</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="1">
         <v>121</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="1">
         <v>197</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="1">
         <v>230</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="1">
         <v>246</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="7">
         <v>281</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>95</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="1">
         <v>113</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="14">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
         <v>77</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="1">
         <v>88</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="1">
         <v>182</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="7">
         <v>209</v>
       </c>
-      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>125</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="1">
         <v>132</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="1">
         <v>62</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="1">
         <v>69</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="1">
         <v>97</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="1">
         <v>112</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="1">
         <v>123</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>145</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>163</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>184</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>122</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>140</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="1">
         <v>231</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="1">
         <v>258</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="1">
         <v>282</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <v>314</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>114</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="1">
         <v>133</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="14">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
         <v>89</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="1">
         <v>102</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="1">
         <v>210</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="7">
         <v>241</v>
       </c>
-      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>133</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="1">
         <v>140</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="1">
         <v>70</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="1">
         <v>81</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="1">
         <v>113</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="1">
         <v>124</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="1">
         <v>146</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>178</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>185</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>208</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>141</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <v>163</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="1">
         <v>259</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="1">
         <v>334</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="1">
         <v>315</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <v>390</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>134</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="1">
         <v>152</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="18">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
         <v>242</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="7">
         <v>277</v>
       </c>
-      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>141</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="1">
         <v>150</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="1">
         <v>82</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="1">
         <v>97</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="1">
         <v>125</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="1">
         <v>136</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="1">
         <v>179</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>198</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>209</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>234</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>164</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>177</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="1">
         <v>335</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="1">
         <v>386</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="1">
         <v>391</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="7">
         <v>437</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="6">
         <v>153</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="1">
         <v>171</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="18">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
         <v>278</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="7">
         <v>313</v>
       </c>
-      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>151</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="1">
         <v>156</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>137</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="1">
         <v>148</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="1">
         <v>199</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>218</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <v>235</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>262</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>178</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <v>202</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="1">
         <v>387</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="1">
         <v>410</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="1">
         <v>438</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="7">
         <v>495</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="6">
         <v>172</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="1">
         <v>185</v>
       </c>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="18">
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
         <v>314</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="7">
         <v>351</v>
       </c>
-      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>157</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="1">
         <v>162</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>149</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="1">
         <v>172</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="1">
         <v>219</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>233</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>263</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>300</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
         <v>411</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="1">
         <v>446</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="1">
         <v>496</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="7">
         <v>512</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="6">
         <v>186</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="1">
         <v>204</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="18">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
         <v>352</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="7">
         <v>379</v>
       </c>
-      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>163</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="1">
         <v>172</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>173</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="1">
         <v>196</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="1">
         <v>234</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>279</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>301</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <v>333</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
         <v>447</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="1">
         <v>476</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="1">
         <v>513</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <v>563</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="18">
+      <c r="R16" s="6"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
         <v>380</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="7">
         <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>173</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="1">
         <v>181</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="12">
         <v>197</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="1">
         <v>244</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="1">
         <v>280</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>297</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>334</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <v>363</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
         <v>477</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="1">
         <v>510</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="18">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
         <v>428</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="7">
         <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>182</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="1">
         <v>189</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
         <v>298</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>324</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>364</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>393</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="18">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
         <v>448</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="7">
         <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>190</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="1">
         <v>198</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
         <v>325</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>342</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="18">
+      <c r="J19" s="6"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
         <v>495</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="7">
         <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>199</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="1">
         <v>206</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
         <v>343</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>382</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="9"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>207</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="1">
         <v>216</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="9"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>217</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="1">
         <v>228</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="9"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>18</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>229</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>239</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28" t="s">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28" t="s">
+      <c r="O32" s="21"/>
+      <c r="P32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="28"/>
+      <c r="Q32" s="21"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>0</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>13</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>16</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="6">
+      <c r="F33" s="4"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <v>11</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="4">
         <v>1</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="4">
         <v>10</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="4">
         <v>1</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="4">
         <v>16</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="4">
         <v>1</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="4">
         <v>19</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="4">
         <v>1</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>14</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="1">
         <v>37</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="1">
         <v>17</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="1">
         <v>47</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="1">
         <v>10</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="1">
         <v>12</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <v>26</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="1">
         <v>11</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="1">
         <v>21</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="1">
         <v>33</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="1">
         <v>20</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="1">
         <v>28</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="1">
         <v>17</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>38</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="1">
         <v>56</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="1">
         <v>48</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="1">
         <v>55</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="1">
         <v>11</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="1">
         <v>34</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="1">
         <v>27</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>46</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="1">
         <v>22</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="1">
         <v>29</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="1">
         <v>34</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="1">
         <v>44</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="1">
         <v>29</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="1">
         <v>35</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="1">
         <v>33</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>57</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="1">
         <v>71</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="1">
         <v>56</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="1">
         <v>75</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="1">
         <v>35</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="1">
         <v>43</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="1">
         <v>47</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>59</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="1">
         <v>30</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="1">
         <v>36</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="1">
         <v>45</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="1">
         <v>59</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="1">
         <v>36</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="1">
         <v>46</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="1">
         <v>54</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>72</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="1">
         <v>85</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="1">
         <v>76</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="1">
         <v>97</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="1">
         <v>44</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="1">
         <v>52</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="1">
         <v>60</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>77</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="1">
         <v>37</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="1">
         <v>47</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="1">
         <v>60</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="1">
         <v>67</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="1">
         <v>47</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="1">
         <v>92</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="1">
         <v>71</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="7">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>86</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="1">
         <v>111</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="1">
         <v>98</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="1">
         <v>112</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="1">
         <v>53</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="1">
         <v>59</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="1">
         <v>78</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <v>91</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="1">
         <v>48</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="1">
         <v>51</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="1">
         <v>68</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="1">
         <v>79</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="1">
         <v>93</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="1">
         <v>107</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="1">
         <v>79</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="7">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>6</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>112</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="1">
         <v>148</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="1">
         <v>113</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="1">
         <v>128</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="1">
         <v>60</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="1">
         <v>72</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="1">
         <v>92</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>106</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="1">
         <v>52</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="1">
         <v>76</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="1">
         <v>80</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="1">
         <v>90</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="1">
         <v>108</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="1">
         <v>134</v>
       </c>
-      <c r="P39" s="18">
+      <c r="P39" s="1">
         <v>92</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="7">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>149</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="1">
         <v>164</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="1">
         <v>129</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="1">
         <v>148</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="1">
         <v>73</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="1">
         <v>92</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="1">
         <v>107</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>114</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="1">
         <v>77</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="1">
         <v>82</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="1">
         <v>91</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="1">
         <v>99</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="1">
         <v>135</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="1">
         <v>151</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="1">
         <v>116</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="7">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18">
+      <c r="B41" s="6"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1">
         <v>149</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="1">
         <v>164</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="1">
         <v>93</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="1">
         <v>103</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="1">
         <v>115</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>120</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="1">
         <v>83</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="1">
         <v>99</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="1">
         <v>100</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="1">
         <v>111</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="1">
         <v>152</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="1">
         <v>158</v>
       </c>
-      <c r="P41" s="18">
+      <c r="P41" s="1">
         <v>138</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="7">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>9</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18">
+      <c r="B42" s="6"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
         <v>165</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="1">
         <v>182</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
         <v>121</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <v>133</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="1">
         <v>100</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="1">
         <v>137</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="1">
         <v>112</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="1">
         <v>122</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="1">
         <v>159</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="1">
         <v>166</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="1">
         <v>158</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="7">
         <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>10</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18">
+      <c r="B43" s="6"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
         <v>183</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="1">
         <v>194</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
         <v>134</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>139</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="1">
         <v>138</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="1">
         <v>158</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="1">
         <v>123</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="1">
         <v>141</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="1">
         <v>167</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="1">
         <v>183</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="1">
         <v>172</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="7">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>11</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18">
+      <c r="B44" s="6"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
         <v>195</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="1">
         <v>206</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
         <v>140</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <v>145</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="1">
         <v>159</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="1">
         <v>168</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="1">
         <v>142</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="1">
         <v>151</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="1">
         <v>184</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="1">
         <v>196</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P44" s="1">
         <v>185</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q44" s="7">
         <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>12</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18">
+      <c r="B45" s="6"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
         <v>207</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="1">
         <v>224</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
         <v>146</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>157</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="1">
         <v>169</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="1">
         <v>188</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="1">
         <v>152</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="1">
         <v>160</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="1">
         <v>197</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="1">
         <v>201</v>
       </c>
-      <c r="P45" s="18">
+      <c r="P45" s="1">
         <v>218</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="7">
         <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>13</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18">
+      <c r="B46" s="6"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
         <v>225</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="1">
         <v>236</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
         <v>158</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <v>162</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="1">
         <v>189</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="1">
         <v>216</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="1">
         <v>161</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M46" s="1">
         <v>172</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="1">
         <v>202</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="1">
         <v>213</v>
       </c>
-      <c r="P46" s="18">
+      <c r="P46" s="1">
         <v>230</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="7">
         <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>14</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18">
+      <c r="B47" s="6"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
         <v>163</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <v>180</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="1">
         <v>217</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="1">
         <v>256</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="1">
         <v>173</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="1">
         <v>180</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="1">
         <v>214</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="1">
         <v>216</v>
       </c>
-      <c r="P47" s="18">
+      <c r="P47" s="1">
         <v>234</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="7">
         <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>15</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18">
+      <c r="B48" s="6"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
         <v>181</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>189</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="1">
         <v>257</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="1">
         <v>279</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="1">
         <v>181</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="1">
         <v>209</v>
       </c>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1">
         <v>237</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="7">
         <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="6">
         <v>16</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="18">
+      <c r="B49" s="6"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="1">
         <v>280</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="1">
         <v>314</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="1">
         <v>210</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="1">
         <v>218</v>
       </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1">
         <v>244</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="7">
         <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>17</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18">
+      <c r="B50" s="6"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1">
         <v>276</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="7">
         <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <v>18</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18">
+      <c r="B51" s="6"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1">
         <v>284</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="7">
         <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>19</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="18">
+      <c r="B52" s="14"/>
+      <c r="I52" s="15"/>
+      <c r="P52" s="1">
         <v>294</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="Q52" s="7">
         <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="6">
         <v>20</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="18">
+      <c r="B53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="P53" s="1">
         <v>311</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53" s="7">
         <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <v>21</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="18">
+      <c r="B54" s="14"/>
+      <c r="I54" s="15"/>
+      <c r="P54" s="1">
         <v>316</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q54" s="7">
         <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="6">
         <v>22</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="18">
+      <c r="B55" s="14"/>
+      <c r="I55" s="15"/>
+      <c r="P55" s="1">
         <v>331</v>
       </c>
-      <c r="Q55" s="9">
+      <c r="Q55" s="7">
         <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="8">
         <v>23</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="11">
+      <c r="B56" s="16"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="9">
         <v>344</v>
       </c>
-      <c r="Q56" s="12">
+      <c r="Q56" s="10">
         <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
     </row>
     <row r="63" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27" t="s">
+      <c r="E64" s="20"/>
+      <c r="F64" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27" t="s">
+      <c r="G64" s="20"/>
+      <c r="H64" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27" t="s">
+      <c r="I64" s="20"/>
+      <c r="J64" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27" t="s">
+      <c r="K64" s="20"/>
+      <c r="L64" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27" t="s">
+      <c r="M64" s="20"/>
+      <c r="N64" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27" t="s">
+      <c r="O64" s="20"/>
+      <c r="P64" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q64" s="27"/>
+      <c r="Q64" s="20"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -4014,6 +3932,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B62:Y62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="B30:Y30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="B2:Y2"/>
     <mergeCell ref="R3:Y3"/>
     <mergeCell ref="R4:S4"/>
@@ -4030,29 +3971,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B62:Y62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="B30:Y30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
